--- a/AI369881/src/main/resources/TestData/OlayUserExcel.xlsx
+++ b/AI369881/src/main/resources/TestData/OlayUserExcel.xlsx
@@ -21,10 +21,10 @@
     <t>EmailID</t>
   </si>
   <si>
-    <t>OlayUserExcelTest1a@gmail.com</t>
+    <t>OlayUserExcelTest1@gmail.com</t>
   </si>
   <si>
-    <t>OlayUserExcelTest2b@gmail.com</t>
+    <t>OlayUserExcelTest2@gmail.com</t>
   </si>
 </sst>
 </file>
